--- a/内部 y.xlsx
+++ b/内部 y.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="8" r:id="rId1"/>
@@ -675,13 +675,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,10 +705,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3290,7 +3290,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -3312,26 +3312,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="e">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3411,58 +3411,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49">
         <v>3</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -4065,17 +4065,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4116,26 +4116,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="e">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -4260,10 +4260,10 @@
       <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="30" t="s">
         <v>19</v>
       </c>
@@ -4273,11 +4273,11 @@
       <c r="I8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -4291,22 +4291,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="38" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -4320,22 +4320,22 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="38" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -4349,22 +4349,22 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="38" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -4378,14 +4378,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -4399,14 +4399,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -4420,14 +4420,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -4441,14 +4441,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -4462,14 +4462,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -4483,14 +4483,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -4504,14 +4504,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="46"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4525,14 +4525,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="46"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4546,14 +4546,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4567,14 +4567,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="46"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4588,14 +4588,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4609,14 +4609,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4630,14 +4630,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4651,14 +4651,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4672,14 +4672,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4939,12 +4939,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -4961,25 +4974,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4997,7 +4997,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -5019,26 +5019,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="e">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="37" t="s">
         <v>2</v>
       </c>
@@ -5163,10 +5163,10 @@
       <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="37" t="s">
         <v>19</v>
       </c>
@@ -5176,11 +5176,11 @@
       <c r="I8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -5194,22 +5194,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="51" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -5223,22 +5223,22 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="51" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -5252,22 +5252,22 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="51" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -5281,14 +5281,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -5302,14 +5302,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -5323,14 +5323,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="46"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -5344,14 +5344,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="46"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -5365,14 +5365,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -5386,14 +5386,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -5407,14 +5407,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="46"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -5428,14 +5428,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="46"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -5449,14 +5449,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="46"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5470,14 +5470,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="46"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5491,14 +5491,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5512,14 +5512,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5533,14 +5533,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="46"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5554,14 +5554,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5575,14 +5575,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5842,37 +5842,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -5883,6 +5852,37 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
